--- a/xlsx/ux-cruise-data.xlsx
+++ b/xlsx/ux-cruise-data.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamesm\Documents\management\technical-taks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom.hart/sites/cruise.co.uk/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="6300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20440" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -3110,9 +3116,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -3145,7 +3151,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3155,7 +3161,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3486,21 +3492,21 @@
   <dimension ref="A1:G684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="A2:G684"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>111117</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>111121</v>
       </c>
@@ -3569,7 +3575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>111132</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>111147</v>
       </c>
@@ -3615,7 +3621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>111157</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>111161</v>
       </c>
@@ -3661,7 +3667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>111163</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>111164</v>
       </c>
@@ -3707,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>111165</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>111166</v>
       </c>
@@ -3753,7 +3759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>111167</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>111171</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>111174</v>
       </c>
@@ -3822,7 +3828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>111176</v>
       </c>
@@ -3845,7 +3851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>111195</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>111196</v>
       </c>
@@ -3891,7 +3897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>111197</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>111198</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>111199</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>111200</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>111201</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>111202</v>
       </c>
@@ -4029,7 +4035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>111203</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>111204</v>
       </c>
@@ -4075,7 +4081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>111205</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>111206</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>92131</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>92132</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>92661</v>
       </c>
@@ -4190,7 +4196,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>92664</v>
       </c>
@@ -4213,7 +4219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>92985</v>
       </c>
@@ -4236,7 +4242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>93484</v>
       </c>
@@ -4259,7 +4265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>93485</v>
       </c>
@@ -4282,7 +4288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>93486</v>
       </c>
@@ -4305,7 +4311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>93487</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>93488</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>93489</v>
       </c>
@@ -4374,7 +4380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>93491</v>
       </c>
@@ -4397,7 +4403,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>93510</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>93511</v>
       </c>
@@ -4443,7 +4449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>93512</v>
       </c>
@@ -4466,7 +4472,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>93513</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>93514</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>93515</v>
       </c>
@@ -4535,7 +4541,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>93516</v>
       </c>
@@ -4558,7 +4564,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>93555</v>
       </c>
@@ -4581,7 +4587,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>93558</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>93559</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>93560</v>
       </c>
@@ -4650,7 +4656,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>93561</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>93562</v>
       </c>
@@ -4696,7 +4702,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>93563</v>
       </c>
@@ -4719,7 +4725,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>93594</v>
       </c>
@@ -4742,7 +4748,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>93595</v>
       </c>
@@ -4765,7 +4771,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>93596</v>
       </c>
@@ -4788,7 +4794,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>93597</v>
       </c>
@@ -4811,7 +4817,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>93598</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>93599</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>93600</v>
       </c>
@@ -4880,7 +4886,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>93601</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>93691</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>93692</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>93693</v>
       </c>
@@ -4972,7 +4978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>93694</v>
       </c>
@@ -4995,7 +5001,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>93695</v>
       </c>
@@ -5018,7 +5024,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>93696</v>
       </c>
@@ -5041,7 +5047,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>93697</v>
       </c>
@@ -5064,7 +5070,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>93698</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>93699</v>
       </c>
@@ -5110,7 +5116,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>93700</v>
       </c>
@@ -5133,7 +5139,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>93701</v>
       </c>
@@ -5156,7 +5162,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>93702</v>
       </c>
@@ -5179,7 +5185,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>93703</v>
       </c>
@@ -5202,7 +5208,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>93704</v>
       </c>
@@ -5225,7 +5231,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>93705</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>93746</v>
       </c>
@@ -5271,7 +5277,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>93747</v>
       </c>
@@ -5294,7 +5300,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>93748</v>
       </c>
@@ -5317,7 +5323,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>93749</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>93750</v>
       </c>
@@ -5363,7 +5369,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>93769</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>93770</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>93771</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>93772</v>
       </c>
@@ -5455,7 +5461,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>93773</v>
       </c>
@@ -5478,7 +5484,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>93774</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>93813</v>
       </c>
@@ -5524,7 +5530,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>93814</v>
       </c>
@@ -5547,7 +5553,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93815</v>
       </c>
@@ -5570,7 +5576,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>93816</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>93828</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93829</v>
       </c>
@@ -5639,7 +5645,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93830</v>
       </c>
@@ -5662,7 +5668,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93831</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>93832</v>
       </c>
@@ -5708,7 +5714,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>93833</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>93834</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>93865</v>
       </c>
@@ -5777,7 +5783,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>93866</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>93867</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>93868</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>93869</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>93870</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>93871</v>
       </c>
@@ -5915,7 +5921,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>93872</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>93915</v>
       </c>
@@ -5961,7 +5967,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>93916</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>93917</v>
       </c>
@@ -6007,7 +6013,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>93918</v>
       </c>
@@ -6030,7 +6036,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>93919</v>
       </c>
@@ -6053,7 +6059,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>93967</v>
       </c>
@@ -6076,7 +6082,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>93968</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>93969</v>
       </c>
@@ -6122,7 +6128,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>94017</v>
       </c>
@@ -6145,7 +6151,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>94018</v>
       </c>
@@ -6168,7 +6174,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>94019</v>
       </c>
@@ -6191,7 +6197,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>94020</v>
       </c>
@@ -6214,7 +6220,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>94021</v>
       </c>
@@ -6237,7 +6243,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>94022</v>
       </c>
@@ -6260,7 +6266,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>111541</v>
       </c>
@@ -6283,7 +6289,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>111545</v>
       </c>
@@ -6306,7 +6312,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>100026</v>
       </c>
@@ -6329,7 +6335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>111695</v>
       </c>
@@ -6352,7 +6358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>111698</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>111919</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>112048</v>
       </c>
@@ -6421,7 +6427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>112050</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>112051</v>
       </c>
@@ -6467,7 +6473,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>112052</v>
       </c>
@@ -6490,7 +6496,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>112053</v>
       </c>
@@ -6513,7 +6519,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>112174</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>112176</v>
       </c>
@@ -6559,7 +6565,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>112178</v>
       </c>
@@ -6582,7 +6588,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>112179</v>
       </c>
@@ -6605,7 +6611,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>112181</v>
       </c>
@@ -6628,7 +6634,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>112184</v>
       </c>
@@ -6651,7 +6657,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>112185</v>
       </c>
@@ -6674,7 +6680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>112187</v>
       </c>
@@ -6697,7 +6703,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>112192</v>
       </c>
@@ -6720,7 +6726,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>112193</v>
       </c>
@@ -6743,7 +6749,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>113245</v>
       </c>
@@ -6766,7 +6772,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>113254</v>
       </c>
@@ -6789,7 +6795,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>113258</v>
       </c>
@@ -6812,7 +6818,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>112704</v>
       </c>
@@ -6835,7 +6841,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>112705</v>
       </c>
@@ -6858,7 +6864,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>112706</v>
       </c>
@@ -6881,7 +6887,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>112707</v>
       </c>
@@ -6904,7 +6910,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>112708</v>
       </c>
@@ -6927,7 +6933,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>112709</v>
       </c>
@@ -6950,7 +6956,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>112710</v>
       </c>
@@ -6973,7 +6979,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>112711</v>
       </c>
@@ -6996,7 +7002,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>112712</v>
       </c>
@@ -7019,7 +7025,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>112713</v>
       </c>
@@ -7042,7 +7048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>112714</v>
       </c>
@@ -7065,7 +7071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>112715</v>
       </c>
@@ -7088,7 +7094,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>112017</v>
       </c>
@@ -7111,7 +7117,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>112018</v>
       </c>
@@ -7134,7 +7140,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>114933</v>
       </c>
@@ -7157,7 +7163,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>114934</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>114936</v>
       </c>
@@ -7203,7 +7209,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>114937</v>
       </c>
@@ -7226,7 +7232,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>114938</v>
       </c>
@@ -7249,7 +7255,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>114939</v>
       </c>
@@ -7272,7 +7278,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>114941</v>
       </c>
@@ -7295,7 +7301,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>114942</v>
       </c>
@@ -7318,7 +7324,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>114945</v>
       </c>
@@ -7341,7 +7347,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>114947</v>
       </c>
@@ -7364,7 +7370,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>114949</v>
       </c>
@@ -7387,7 +7393,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>114951</v>
       </c>
@@ -7410,7 +7416,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>114952</v>
       </c>
@@ -7433,7 +7439,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>114953</v>
       </c>
@@ -7456,7 +7462,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>114956</v>
       </c>
@@ -7479,7 +7485,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>114957</v>
       </c>
@@ -7502,7 +7508,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>114958</v>
       </c>
@@ -7525,7 +7531,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>114959</v>
       </c>
@@ -7548,7 +7554,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>114960</v>
       </c>
@@ -7571,7 +7577,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>114961</v>
       </c>
@@ -7594,7 +7600,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>114962</v>
       </c>
@@ -7617,7 +7623,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>114963</v>
       </c>
@@ -7640,7 +7646,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>114965</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>114967</v>
       </c>
@@ -7686,7 +7692,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>114968</v>
       </c>
@@ -7709,7 +7715,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>114969</v>
       </c>
@@ -7732,7 +7738,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>114970</v>
       </c>
@@ -7755,7 +7761,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>114971</v>
       </c>
@@ -7778,7 +7784,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>114972</v>
       </c>
@@ -7801,7 +7807,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>114973</v>
       </c>
@@ -7824,7 +7830,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>114974</v>
       </c>
@@ -7847,7 +7853,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>114976</v>
       </c>
@@ -7870,7 +7876,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>114977</v>
       </c>
@@ -7893,7 +7899,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>114978</v>
       </c>
@@ -7916,7 +7922,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>114979</v>
       </c>
@@ -7939,7 +7945,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>114980</v>
       </c>
@@ -7962,7 +7968,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>114981</v>
       </c>
@@ -7985,7 +7991,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>114982</v>
       </c>
@@ -8008,7 +8014,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>114983</v>
       </c>
@@ -8031,7 +8037,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>114984</v>
       </c>
@@ -8054,7 +8060,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>114985</v>
       </c>
@@ -8077,7 +8083,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>114986</v>
       </c>
@@ -8100,7 +8106,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>114987</v>
       </c>
@@ -8123,7 +8129,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>114988</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>114989</v>
       </c>
@@ -8169,7 +8175,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>114990</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>114991</v>
       </c>
@@ -8215,7 +8221,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>114992</v>
       </c>
@@ -8238,7 +8244,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>114993</v>
       </c>
@@ -8261,7 +8267,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>114994</v>
       </c>
@@ -8284,7 +8290,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>114995</v>
       </c>
@@ -8307,7 +8313,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>114996</v>
       </c>
@@ -8330,7 +8336,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>114997</v>
       </c>
@@ -8353,7 +8359,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>114998</v>
       </c>
@@ -8376,7 +8382,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>114999</v>
       </c>
@@ -8399,7 +8405,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>115001</v>
       </c>
@@ -8422,7 +8428,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>115002</v>
       </c>
@@ -8445,7 +8451,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>115004</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>115005</v>
       </c>
@@ -8491,7 +8497,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>115006</v>
       </c>
@@ -8514,7 +8520,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>115007</v>
       </c>
@@ -8537,7 +8543,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>115008</v>
       </c>
@@ -8560,7 +8566,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>115009</v>
       </c>
@@ -8583,7 +8589,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>115010</v>
       </c>
@@ -8606,7 +8612,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>115011</v>
       </c>
@@ -8629,7 +8635,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>115012</v>
       </c>
@@ -8652,7 +8658,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>115013</v>
       </c>
@@ -8675,7 +8681,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>115014</v>
       </c>
@@ -8698,7 +8704,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>115015</v>
       </c>
@@ -8721,7 +8727,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>115016</v>
       </c>
@@ -8744,7 +8750,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>115017</v>
       </c>
@@ -8767,7 +8773,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>115018</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>115019</v>
       </c>
@@ -8813,7 +8819,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>115020</v>
       </c>
@@ -8836,7 +8842,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>115021</v>
       </c>
@@ -8859,7 +8865,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>115022</v>
       </c>
@@ -8882,7 +8888,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>115023</v>
       </c>
@@ -8905,7 +8911,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>115024</v>
       </c>
@@ -8928,7 +8934,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>115025</v>
       </c>
@@ -8951,7 +8957,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>98152</v>
       </c>
@@ -8974,7 +8980,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>98153</v>
       </c>
@@ -8997,7 +9003,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>98154</v>
       </c>
@@ -9020,7 +9026,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>98155</v>
       </c>
@@ -9043,7 +9049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>98156</v>
       </c>
@@ -9066,7 +9072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>98157</v>
       </c>
@@ -9089,7 +9095,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>98158</v>
       </c>
@@ -9112,7 +9118,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>98159</v>
       </c>
@@ -9135,7 +9141,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>98160</v>
       </c>
@@ -9158,7 +9164,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>98162</v>
       </c>
@@ -9181,7 +9187,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>98163</v>
       </c>
@@ -9204,7 +9210,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>98741</v>
       </c>
@@ -9227,7 +9233,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>98742</v>
       </c>
@@ -9250,7 +9256,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>98743</v>
       </c>
@@ -9273,7 +9279,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>98744</v>
       </c>
@@ -9296,7 +9302,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>98745</v>
       </c>
@@ -9319,7 +9325,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>98814</v>
       </c>
@@ -9342,7 +9348,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>98815</v>
       </c>
@@ -9365,7 +9371,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>98816</v>
       </c>
@@ -9388,7 +9394,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>98817</v>
       </c>
@@ -9411,7 +9417,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>98818</v>
       </c>
@@ -9434,7 +9440,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>99998</v>
       </c>
@@ -9457,7 +9463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>115026</v>
       </c>
@@ -9480,7 +9486,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>115027</v>
       </c>
@@ -9503,7 +9509,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>115028</v>
       </c>
@@ -9526,7 +9532,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>115029</v>
       </c>
@@ -9549,7 +9555,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>115032</v>
       </c>
@@ -9572,7 +9578,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>115033</v>
       </c>
@@ -9595,7 +9601,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>115034</v>
       </c>
@@ -9618,7 +9624,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>115035</v>
       </c>
@@ -9641,7 +9647,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>115036</v>
       </c>
@@ -9664,7 +9670,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>115037</v>
       </c>
@@ -9687,7 +9693,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>115038</v>
       </c>
@@ -9710,7 +9716,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>115039</v>
       </c>
@@ -9733,7 +9739,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>115040</v>
       </c>
@@ -9756,7 +9762,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>115041</v>
       </c>
@@ -9779,7 +9785,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>115042</v>
       </c>
@@ -9802,7 +9808,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>115043</v>
       </c>
@@ -9825,7 +9831,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>115044</v>
       </c>
@@ -9848,7 +9854,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>115045</v>
       </c>
@@ -9871,7 +9877,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>115049</v>
       </c>
@@ -9894,7 +9900,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>115050</v>
       </c>
@@ -9917,7 +9923,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>115051</v>
       </c>
@@ -9940,7 +9946,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>115052</v>
       </c>
@@ -9963,7 +9969,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>115055</v>
       </c>
@@ -9986,7 +9992,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>115056</v>
       </c>
@@ -10009,7 +10015,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>115064</v>
       </c>
@@ -10032,7 +10038,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>115066</v>
       </c>
@@ -10055,7 +10061,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>115069</v>
       </c>
@@ -10078,7 +10084,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>115070</v>
       </c>
@@ -10101,7 +10107,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>115384</v>
       </c>
@@ -10124,7 +10130,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>115385</v>
       </c>
@@ -10147,7 +10153,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>115386</v>
       </c>
@@ -10170,7 +10176,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>115387</v>
       </c>
@@ -10193,7 +10199,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>115388</v>
       </c>
@@ -10216,7 +10222,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>115389</v>
       </c>
@@ -10239,7 +10245,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>115390</v>
       </c>
@@ -10262,7 +10268,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>115391</v>
       </c>
@@ -10285,7 +10291,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>115392</v>
       </c>
@@ -10308,7 +10314,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>115393</v>
       </c>
@@ -10331,7 +10337,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>115394</v>
       </c>
@@ -10354,7 +10360,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>115395</v>
       </c>
@@ -10377,7 +10383,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>115396</v>
       </c>
@@ -10400,7 +10406,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>115405</v>
       </c>
@@ -10423,7 +10429,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>115425</v>
       </c>
@@ -10446,7 +10452,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>115426</v>
       </c>
@@ -10469,7 +10475,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>115427</v>
       </c>
@@ -10492,7 +10498,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>115428</v>
       </c>
@@ -10515,7 +10521,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>115429</v>
       </c>
@@ -10538,7 +10544,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>115430</v>
       </c>
@@ -10561,7 +10567,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>115431</v>
       </c>
@@ -10584,7 +10590,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>115432</v>
       </c>
@@ -10607,7 +10613,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>115433</v>
       </c>
@@ -10630,7 +10636,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>115434</v>
       </c>
@@ -10653,7 +10659,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>115435</v>
       </c>
@@ -10676,7 +10682,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>115436</v>
       </c>
@@ -10699,7 +10705,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>115437</v>
       </c>
@@ -10722,7 +10728,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>115438</v>
       </c>
@@ -10745,7 +10751,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>115439</v>
       </c>
@@ -10768,7 +10774,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>115440</v>
       </c>
@@ -10791,7 +10797,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>115441</v>
       </c>
@@ -10814,7 +10820,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>115442</v>
       </c>
@@ -10837,7 +10843,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>115443</v>
       </c>
@@ -10860,7 +10866,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>115444</v>
       </c>
@@ -10883,7 +10889,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>115445</v>
       </c>
@@ -10906,7 +10912,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>115446</v>
       </c>
@@ -10929,7 +10935,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>115447</v>
       </c>
@@ -10952,7 +10958,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>115448</v>
       </c>
@@ -10975,7 +10981,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>115449</v>
       </c>
@@ -10998,7 +11004,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>115450</v>
       </c>
@@ -11021,7 +11027,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>115451</v>
       </c>
@@ -11044,7 +11050,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>115452</v>
       </c>
@@ -11067,7 +11073,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>115453</v>
       </c>
@@ -11090,7 +11096,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>115454</v>
       </c>
@@ -11113,7 +11119,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>115455</v>
       </c>
@@ -11136,7 +11142,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>115456</v>
       </c>
@@ -11159,7 +11165,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>115457</v>
       </c>
@@ -11182,7 +11188,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>115458</v>
       </c>
@@ -11205,7 +11211,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>115459</v>
       </c>
@@ -11228,7 +11234,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>115460</v>
       </c>
@@ -11251,7 +11257,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>115461</v>
       </c>
@@ -11274,7 +11280,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>115462</v>
       </c>
@@ -11297,7 +11303,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>115463</v>
       </c>
@@ -11320,7 +11326,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>115464</v>
       </c>
@@ -11343,7 +11349,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>115465</v>
       </c>
@@ -11366,7 +11372,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>115466</v>
       </c>
@@ -11389,7 +11395,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>115467</v>
       </c>
@@ -11412,7 +11418,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>115468</v>
       </c>
@@ -11435,7 +11441,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>115469</v>
       </c>
@@ -11458,7 +11464,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>115471</v>
       </c>
@@ -11481,7 +11487,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>115472</v>
       </c>
@@ -11504,7 +11510,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>115473</v>
       </c>
@@ -11527,7 +11533,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>115474</v>
       </c>
@@ -11550,7 +11556,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>115475</v>
       </c>
@@ -11573,7 +11579,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>115476</v>
       </c>
@@ -11596,7 +11602,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>115477</v>
       </c>
@@ -11619,7 +11625,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>115478</v>
       </c>
@@ -11642,7 +11648,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>115479</v>
       </c>
@@ -11665,7 +11671,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>115495</v>
       </c>
@@ -11688,7 +11694,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>115496</v>
       </c>
@@ -11711,7 +11717,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>115497</v>
       </c>
@@ -11734,7 +11740,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>115498</v>
       </c>
@@ -11757,7 +11763,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>115500</v>
       </c>
@@ -11780,7 +11786,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>115501</v>
       </c>
@@ -11803,7 +11809,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>115502</v>
       </c>
@@ -11826,7 +11832,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>115503</v>
       </c>
@@ -11849,7 +11855,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>115504</v>
       </c>
@@ -11872,7 +11878,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>115505</v>
       </c>
@@ -11895,7 +11901,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>115506</v>
       </c>
@@ -11918,7 +11924,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>115507</v>
       </c>
@@ -11941,7 +11947,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>115508</v>
       </c>
@@ -11964,7 +11970,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>115509</v>
       </c>
@@ -11987,7 +11993,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>115510</v>
       </c>
@@ -12010,7 +12016,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>115511</v>
       </c>
@@ -12033,7 +12039,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>115512</v>
       </c>
@@ -12056,7 +12062,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>115513</v>
       </c>
@@ -12079,7 +12085,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>115514</v>
       </c>
@@ -12102,7 +12108,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>115515</v>
       </c>
@@ -12125,7 +12131,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>115516</v>
       </c>
@@ -12148,7 +12154,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>115518</v>
       </c>
@@ -12171,7 +12177,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>115519</v>
       </c>
@@ -12194,7 +12200,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>115520</v>
       </c>
@@ -12217,7 +12223,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>115521</v>
       </c>
@@ -12240,7 +12246,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>115522</v>
       </c>
@@ -12263,7 +12269,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>115523</v>
       </c>
@@ -12286,7 +12292,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>115524</v>
       </c>
@@ -12309,7 +12315,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>115525</v>
       </c>
@@ -12332,7 +12338,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>115526</v>
       </c>
@@ -12355,7 +12361,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>115527</v>
       </c>
@@ -12378,7 +12384,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>115528</v>
       </c>
@@ -12401,7 +12407,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>115529</v>
       </c>
@@ -12424,7 +12430,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>115530</v>
       </c>
@@ -12447,7 +12453,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>115531</v>
       </c>
@@ -12470,7 +12476,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>115532</v>
       </c>
@@ -12493,7 +12499,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>115533</v>
       </c>
@@ -12516,7 +12522,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>115534</v>
       </c>
@@ -12539,7 +12545,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>115536</v>
       </c>
@@ -12562,7 +12568,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>115537</v>
       </c>
@@ -12585,7 +12591,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>115538</v>
       </c>
@@ -12608,7 +12614,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>115539</v>
       </c>
@@ -12631,7 +12637,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>115540</v>
       </c>
@@ -12654,7 +12660,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>115541</v>
       </c>
@@ -12677,7 +12683,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>115542</v>
       </c>
@@ -12700,7 +12706,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>115480</v>
       </c>
@@ -12723,7 +12729,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>115481</v>
       </c>
@@ -12746,7 +12752,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>115482</v>
       </c>
@@ -12769,7 +12775,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>115483</v>
       </c>
@@ -12792,7 +12798,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>115484</v>
       </c>
@@ -12815,7 +12821,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>115485</v>
       </c>
@@ -12838,7 +12844,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>115486</v>
       </c>
@@ -12861,7 +12867,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>115487</v>
       </c>
@@ -12884,7 +12890,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>115488</v>
       </c>
@@ -12907,7 +12913,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>115489</v>
       </c>
@@ -12930,7 +12936,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>115490</v>
       </c>
@@ -12953,7 +12959,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>115491</v>
       </c>
@@ -12976,7 +12982,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>115492</v>
       </c>
@@ -12999,7 +13005,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>115493</v>
       </c>
@@ -13022,7 +13028,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>115494</v>
       </c>
@@ -13045,7 +13051,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>115543</v>
       </c>
@@ -13068,7 +13074,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>115544</v>
       </c>
@@ -13091,7 +13097,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>115545</v>
       </c>
@@ -13114,7 +13120,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>115546</v>
       </c>
@@ -13137,7 +13143,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>115547</v>
       </c>
@@ -13160,7 +13166,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>115548</v>
       </c>
@@ -13183,7 +13189,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>115549</v>
       </c>
@@ -13206,7 +13212,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>115550</v>
       </c>
@@ -13229,7 +13235,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>115551</v>
       </c>
@@ -13252,7 +13258,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>115552</v>
       </c>
@@ -13275,7 +13281,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>115553</v>
       </c>
@@ -13298,7 +13304,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>115554</v>
       </c>
@@ -13321,7 +13327,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>115555</v>
       </c>
@@ -13344,7 +13350,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>115556</v>
       </c>
@@ -13367,7 +13373,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>115557</v>
       </c>
@@ -13390,7 +13396,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>115558</v>
       </c>
@@ -13413,7 +13419,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>115559</v>
       </c>
@@ -13436,7 +13442,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>115560</v>
       </c>
@@ -13459,7 +13465,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>115565</v>
       </c>
@@ -13482,7 +13488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>115566</v>
       </c>
@@ -13505,7 +13511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>115567</v>
       </c>
@@ -13528,7 +13534,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>115568</v>
       </c>
@@ -13551,7 +13557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>115569</v>
       </c>
@@ -13574,7 +13580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>115570</v>
       </c>
@@ -13597,7 +13603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>115571</v>
       </c>
@@ -13620,7 +13626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>115572</v>
       </c>
@@ -13643,7 +13649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>115573</v>
       </c>
@@ -13666,7 +13672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>115574</v>
       </c>
@@ -13689,7 +13695,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>115575</v>
       </c>
@@ -13712,7 +13718,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>115576</v>
       </c>
@@ -13735,7 +13741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>115577</v>
       </c>
@@ -13758,7 +13764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>115578</v>
       </c>
@@ -13781,7 +13787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>89514</v>
       </c>
@@ -13804,7 +13810,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>89569</v>
       </c>
@@ -13827,7 +13833,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>89570</v>
       </c>
@@ -13850,7 +13856,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>89571</v>
       </c>
@@ -13873,7 +13879,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>89602</v>
       </c>
@@ -13896,7 +13902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>89603</v>
       </c>
@@ -13919,7 +13925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>89604</v>
       </c>
@@ -13942,7 +13948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>89605</v>
       </c>
@@ -13965,7 +13971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>102916</v>
       </c>
@@ -13988,7 +13994,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>102917</v>
       </c>
@@ -14011,7 +14017,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>102989</v>
       </c>
@@ -14034,7 +14040,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>102990</v>
       </c>
@@ -14057,7 +14063,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>102992</v>
       </c>
@@ -14080,7 +14086,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>102993</v>
       </c>
@@ -14103,7 +14109,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>103001</v>
       </c>
@@ -14126,7 +14132,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>103011</v>
       </c>
@@ -14149,7 +14155,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>103021</v>
       </c>
@@ -14172,7 +14178,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>103029</v>
       </c>
@@ -14195,7 +14201,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>103038</v>
       </c>
@@ -14218,7 +14224,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>103040</v>
       </c>
@@ -14241,7 +14247,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>103042</v>
       </c>
@@ -14264,7 +14270,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>103046</v>
       </c>
@@ -14287,7 +14293,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>103047</v>
       </c>
@@ -14310,7 +14316,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>103048</v>
       </c>
@@ -14333,7 +14339,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>103049</v>
       </c>
@@ -14356,7 +14362,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>103050</v>
       </c>
@@ -14379,7 +14385,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>103051</v>
       </c>
@@ -14402,7 +14408,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>103052</v>
       </c>
@@ -14425,7 +14431,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>103054</v>
       </c>
@@ -14448,7 +14454,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>103080</v>
       </c>
@@ -14471,7 +14477,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>103087</v>
       </c>
@@ -14494,7 +14500,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>103088</v>
       </c>
@@ -14517,7 +14523,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>103089</v>
       </c>
@@ -14540,7 +14546,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>103090</v>
       </c>
@@ -14563,7 +14569,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>103091</v>
       </c>
@@ -14586,7 +14592,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>103094</v>
       </c>
@@ -14609,7 +14615,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>103101</v>
       </c>
@@ -14632,7 +14638,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>103103</v>
       </c>
@@ -14655,7 +14661,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>103104</v>
       </c>
@@ -14678,7 +14684,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>103105</v>
       </c>
@@ -14701,7 +14707,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>103106</v>
       </c>
@@ -14724,7 +14730,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>103107</v>
       </c>
@@ -14747,7 +14753,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>103136</v>
       </c>
@@ -14770,7 +14776,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>103137</v>
       </c>
@@ -14793,7 +14799,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>103139</v>
       </c>
@@ -14816,7 +14822,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>103143</v>
       </c>
@@ -14839,7 +14845,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>103144</v>
       </c>
@@ -14862,7 +14868,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>103145</v>
       </c>
@@ -14885,7 +14891,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>103146</v>
       </c>
@@ -14908,7 +14914,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>103148</v>
       </c>
@@ -14931,7 +14937,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>103151</v>
       </c>
@@ -14954,7 +14960,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>103166</v>
       </c>
@@ -14977,7 +14983,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>103175</v>
       </c>
@@ -15000,7 +15006,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>103177</v>
       </c>
@@ -15023,7 +15029,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>103180</v>
       </c>
@@ -15046,7 +15052,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>103183</v>
       </c>
@@ -15069,7 +15075,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>103184</v>
       </c>
@@ -15092,7 +15098,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>103185</v>
       </c>
@@ -15115,7 +15121,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>103188</v>
       </c>
@@ -15138,7 +15144,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>103189</v>
       </c>
@@ -15161,7 +15167,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>103190</v>
       </c>
@@ -15184,7 +15190,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>103191</v>
       </c>
@@ -15207,7 +15213,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>103192</v>
       </c>
@@ -15230,7 +15236,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>103193</v>
       </c>
@@ -15253,7 +15259,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>103194</v>
       </c>
@@ -15276,7 +15282,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>103195</v>
       </c>
@@ -15299,7 +15305,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>103196</v>
       </c>
@@ -15322,7 +15328,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>103197</v>
       </c>
@@ -15345,7 +15351,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>103198</v>
       </c>
@@ -15368,7 +15374,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>103199</v>
       </c>
@@ -15391,7 +15397,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>103200</v>
       </c>
@@ -15414,7 +15420,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>103201</v>
       </c>
@@ -15437,7 +15443,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>103202</v>
       </c>
@@ -15460,7 +15466,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>103203</v>
       </c>
@@ -15483,7 +15489,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>103212</v>
       </c>
@@ -15506,7 +15512,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>103213</v>
       </c>
@@ -15529,7 +15535,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>103214</v>
       </c>
@@ -15552,7 +15558,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>103216</v>
       </c>
@@ -15575,7 +15581,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>103217</v>
       </c>
@@ -15598,7 +15604,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>103226</v>
       </c>
@@ -15621,7 +15627,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>103228</v>
       </c>
@@ -15644,7 +15650,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>103234</v>
       </c>
@@ -15667,7 +15673,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>103235</v>
       </c>
@@ -15690,7 +15696,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>103251</v>
       </c>
@@ -15713,7 +15719,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>103271</v>
       </c>
@@ -15736,7 +15742,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>103272</v>
       </c>
@@ -15759,7 +15765,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>103292</v>
       </c>
@@ -15782,7 +15788,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>103293</v>
       </c>
@@ -15805,7 +15811,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>103294</v>
       </c>
@@ -15828,7 +15834,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>103295</v>
       </c>
@@ -15851,7 +15857,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>103296</v>
       </c>
@@ -15874,7 +15880,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>103297</v>
       </c>
@@ -15897,7 +15903,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>103298</v>
       </c>
@@ -15920,7 +15926,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>103299</v>
       </c>
@@ -15943,7 +15949,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>103300</v>
       </c>
@@ -15966,7 +15972,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>103301</v>
       </c>
@@ -15989,7 +15995,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>103302</v>
       </c>
@@ -16012,7 +16018,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>103303</v>
       </c>
@@ -16035,7 +16041,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>103304</v>
       </c>
@@ -16058,7 +16064,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>103305</v>
       </c>
@@ -16081,7 +16087,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>103306</v>
       </c>
@@ -16104,7 +16110,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>103307</v>
       </c>
@@ -16127,7 +16133,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>103308</v>
       </c>
@@ -16150,7 +16156,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>103309</v>
       </c>
@@ -16173,7 +16179,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>103310</v>
       </c>
@@ -16196,7 +16202,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>103311</v>
       </c>
@@ -16219,7 +16225,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>103312</v>
       </c>
@@ -16242,7 +16248,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>103313</v>
       </c>
@@ -16265,7 +16271,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>103314</v>
       </c>
@@ -16288,7 +16294,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>103315</v>
       </c>
@@ -16311,7 +16317,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>103328</v>
       </c>
@@ -16334,7 +16340,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>103341</v>
       </c>
@@ -16357,7 +16363,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>103342</v>
       </c>
@@ -16380,7 +16386,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>103343</v>
       </c>
@@ -16403,7 +16409,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>103344</v>
       </c>
@@ -16426,7 +16432,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>103346</v>
       </c>
@@ -16449,7 +16455,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>103347</v>
       </c>
@@ -16472,7 +16478,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>103348</v>
       </c>
@@ -16495,7 +16501,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>103349</v>
       </c>
@@ -16518,7 +16524,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>103379</v>
       </c>
@@ -16541,7 +16547,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>103380</v>
       </c>
@@ -16564,7 +16570,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>103381</v>
       </c>
@@ -16587,7 +16593,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>103382</v>
       </c>
@@ -16610,7 +16616,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>103383</v>
       </c>
@@ -16633,7 +16639,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>103384</v>
       </c>
@@ -16656,7 +16662,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>103385</v>
       </c>
@@ -16679,7 +16685,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>103386</v>
       </c>
@@ -16702,7 +16708,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>103387</v>
       </c>
@@ -16725,7 +16731,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>103388</v>
       </c>
@@ -16748,7 +16754,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>103390</v>
       </c>
@@ -16771,7 +16777,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>103391</v>
       </c>
@@ -16794,7 +16800,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>103394</v>
       </c>
@@ -16817,7 +16823,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>103395</v>
       </c>
@@ -16840,7 +16846,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>103396</v>
       </c>
@@ -16863,7 +16869,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>103398</v>
       </c>
@@ -16886,7 +16892,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>103400</v>
       </c>
@@ -16909,7 +16915,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>103402</v>
       </c>
@@ -16932,7 +16938,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>103403</v>
       </c>
@@ -16955,7 +16961,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>103404</v>
       </c>
@@ -16978,7 +16984,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>103405</v>
       </c>
@@ -17001,7 +17007,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>103406</v>
       </c>
@@ -17024,7 +17030,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>103408</v>
       </c>
@@ -17047,7 +17053,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>103409</v>
       </c>
@@ -17070,7 +17076,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>103410</v>
       </c>
@@ -17093,7 +17099,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>103418</v>
       </c>
@@ -17116,7 +17122,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>103428</v>
       </c>
@@ -17139,7 +17145,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>103429</v>
       </c>
@@ -17162,7 +17168,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>103430</v>
       </c>
@@ -17185,7 +17191,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>103431</v>
       </c>
@@ -17208,7 +17214,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>103433</v>
       </c>
@@ -17231,7 +17237,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>103434</v>
       </c>
@@ -17254,7 +17260,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>103435</v>
       </c>
@@ -17277,7 +17283,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>103436</v>
       </c>
@@ -17300,7 +17306,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>103437</v>
       </c>
@@ -17323,7 +17329,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>103438</v>
       </c>
@@ -17346,7 +17352,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>103439</v>
       </c>
@@ -17369,7 +17375,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>103440</v>
       </c>
@@ -17392,7 +17398,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>103441</v>
       </c>
@@ -17415,7 +17421,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>103442</v>
       </c>
@@ -17438,7 +17444,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>103443</v>
       </c>
@@ -17461,7 +17467,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>103444</v>
       </c>
@@ -17484,7 +17490,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>103447</v>
       </c>
@@ -17507,7 +17513,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>103448</v>
       </c>
@@ -17530,7 +17536,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>103449</v>
       </c>
@@ -17553,7 +17559,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>103450</v>
       </c>
@@ -17576,7 +17582,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>103451</v>
       </c>
@@ -17599,7 +17605,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>103452</v>
       </c>
@@ -17622,7 +17628,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>103453</v>
       </c>
@@ -17645,7 +17651,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>103454</v>
       </c>
@@ -17668,7 +17674,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>103455</v>
       </c>
@@ -17691,7 +17697,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>103456</v>
       </c>
@@ -17714,7 +17720,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>103457</v>
       </c>
@@ -17737,7 +17743,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>103458</v>
       </c>
@@ -17760,7 +17766,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>103459</v>
       </c>
@@ -17783,7 +17789,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>103460</v>
       </c>
@@ -17806,7 +17812,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>103461</v>
       </c>
@@ -17829,7 +17835,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>103462</v>
       </c>
@@ -17852,7 +17858,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>103463</v>
       </c>
@@ -17875,7 +17881,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>103465</v>
       </c>
@@ -17898,7 +17904,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>103468</v>
       </c>
@@ -17921,7 +17927,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>103469</v>
       </c>
@@ -17944,7 +17950,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>103470</v>
       </c>
@@ -17967,7 +17973,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>103471</v>
       </c>
@@ -17990,7 +17996,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>103472</v>
       </c>
@@ -18013,7 +18019,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>103473</v>
       </c>
@@ -18036,7 +18042,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>103474</v>
       </c>
@@ -18059,7 +18065,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>103475</v>
       </c>
@@ -18082,7 +18088,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>103476</v>
       </c>
@@ -18105,7 +18111,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>103477</v>
       </c>
@@ -18128,7 +18134,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>103478</v>
       </c>
@@ -18151,7 +18157,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>103479</v>
       </c>
@@ -18174,7 +18180,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>103480</v>
       </c>
@@ -18197,7 +18203,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>103481</v>
       </c>
@@ -18220,7 +18226,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>103482</v>
       </c>
@@ -18243,7 +18249,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>103483</v>
       </c>
@@ -18266,7 +18272,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>103484</v>
       </c>
@@ -18289,7 +18295,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>103485</v>
       </c>
@@ -18312,7 +18318,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>103486</v>
       </c>
@@ -18335,7 +18341,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>103487</v>
       </c>
@@ -18358,7 +18364,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>103488</v>
       </c>
@@ -18381,7 +18387,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>103489</v>
       </c>
@@ -18404,7 +18410,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>103490</v>
       </c>
@@ -18427,7 +18433,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>103491</v>
       </c>
@@ -18450,7 +18456,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>103492</v>
       </c>
@@ -18473,7 +18479,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>103494</v>
       </c>
@@ -18496,7 +18502,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>103495</v>
       </c>
@@ -18519,7 +18525,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>103496</v>
       </c>
@@ -18542,7 +18548,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>103497</v>
       </c>
@@ -18565,7 +18571,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>103498</v>
       </c>
@@ -18588,7 +18594,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>103499</v>
       </c>
@@ -18611,7 +18617,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>103501</v>
       </c>
@@ -18634,7 +18640,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>103502</v>
       </c>
@@ -18657,7 +18663,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>103503</v>
       </c>
@@ -18680,7 +18686,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>103507</v>
       </c>
@@ -18703,7 +18709,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>103508</v>
       </c>
@@ -18726,7 +18732,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>103509</v>
       </c>
@@ -18749,7 +18755,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>103510</v>
       </c>
@@ -18772,7 +18778,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>103511</v>
       </c>
@@ -18795,7 +18801,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>103512</v>
       </c>
@@ -18818,7 +18824,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>103513</v>
       </c>
@@ -18841,7 +18847,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>103514</v>
       </c>
@@ -18864,7 +18870,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>103515</v>
       </c>
@@ -18887,7 +18893,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>103516</v>
       </c>
@@ -18910,7 +18916,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>103517</v>
       </c>
@@ -18933,7 +18939,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>103518</v>
       </c>
@@ -18956,7 +18962,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>103519</v>
       </c>
@@ -18979,7 +18985,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>103520</v>
       </c>
@@ -19002,7 +19008,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>103521</v>
       </c>
@@ -19025,7 +19031,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>103522</v>
       </c>
@@ -19048,7 +19054,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>103523</v>
       </c>
@@ -19071,7 +19077,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>103524</v>
       </c>
@@ -19094,7 +19100,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>103525</v>
       </c>
@@ -19117,7 +19123,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>103526</v>
       </c>
@@ -19140,7 +19146,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>103527</v>
       </c>
@@ -19163,7 +19169,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>103528</v>
       </c>
@@ -19186,7 +19192,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>103529</v>
       </c>
@@ -19209,7 +19215,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>103530</v>
       </c>
